--- a/docs/assets/disciplinas/LOQ4066.xlsx
+++ b/docs/assets/disciplinas/LOQ4066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os princípios fundamentais envolvidos nas operações relacionadas a sistemas particulados, de forma a permitir a análise de desempenho dos equipamentos que lidam com estes sistemas.</t>
+    <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>787307 - Luis Fernando Figueiredo Faria</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Fundamentos e caracterização de partículas e sistemas particulados. Dinâmica da interação sólido-fluido. Aplicações em sistemas diluídos: elutriação, câmara de poeira, ciclones, centrífugas e hidrociclones. Aplicações em sistemas concentrados: escoamento monofásico em meios porosos, filtração sólido-líquido, sedimentação, fluidização, transporte pneumático e hidráulico de partículas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,12 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Caracterização de partículas e sistemas particulados: noções de amostragem; diâmetros de esferas equivalentes e  diâmetros estatísticos; esfericidade; análise granulométrica, frequência simples e acumuladas; modelos de distribuição de tamanhos.   
-2. Interação sólido-fluido: Dinâmica e análise dimensional do sistema partícula - fluido infinito:velocidade terminal; lei de Stokes; correlação entre coeficiente de arraste e número de Reynolds para esferas; efeito da forma das partículas; efeito de paredes; efeito de população; efeito de deslizamento. 
-3. Aplicações em sistemas diluídos: separação sólido-sólido por elutriação; partículas equitombantes e razão de sedimentação; eficiências globais e individuais de coleta; diâmetro de corte; separação sólido-gás com câmaras de poeira e ciclones; separação sólido-líquido com centrífugas e hidrociclones.
-4. Aplicações em  sistemas concentrados: escoamento monofásico em meios porosos; separação sólido-líquido por filtração em superfície; auxiliares de filtração; estudo detalhado dos filtros prensa e de tambor rotativo; separação sólido-líquido por sedimentação; leitos fluidizados a gás e a líquido; curva característica e histerese de fluidização; previsão das velocidades mínima e máxima de fluidização; transporte pneumático de partículas; velocidade de deslizamento; transporte hidráulico de partículas; velocidade de salto.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,31 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Participação em sala de aula, preparação e apresentação de trabalhos e provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) /3
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. PERRY, R.H.; GREEN, D.W.; MALONEY, J.O. (Eds.). Perrys Chemical Engineers Handbook. New York : McGraw-Hill, 1997.
-2. MASSARANI, G. Fluidodinâmica em Sistemas Particulados. 2. ed. RJ: E-Papers, 2002.
-3. SVAROVSKY, L. Solid-Liquid Separation. 3. ed. LondonBoston: Butterworths, 1990.
-4. RUSHTON, A.; WARD, A.S.; HOLDICH, R.G. Solid-Liquid Filtration and Separation Technology. Weinheim:  VCH, 1996.
-5. COULSON, J.M.; RICHARDSON, J.F. Chemical Engineering. 5th. ed. Londres: Pergamon Press,1996. Vol. 2.
-6. ALLEN, T. Particle Size Measurement. 5th. ed. Londres: Chapman &amp; Hall, 1997. Vol 1 e 2.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -496,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,106 +604,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4066.xlsx
+++ b/docs/assets/disciplinas/LOQ4066.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os princípios fundamentais envolvidos nas operações relacionadas a sistemas particulados, de forma a permitir a análise de desempenho dos equipamentos que lidam com estes sistemas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Fundamentos e caracterização de partículas e sistemas particulados. Dinâmica da interação sólido-fluido. Aplicações em sistemas diluídos: elutriação, câmara de poeira, ciclones, centrífugas e hidrociclones. Aplicações em sistemas concentrados: escoamento monofásico em meios porosos, filtração sólido-líquido, sedimentação, fluidização, transporte pneumático e hidráulico de partículas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,12 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Caracterização de partículas e sistemas particulados: noções de amostragem; diâmetros de esferas equivalentes e  diâmetros estatísticos; esfericidade; análise granulométrica, frequência simples e acumuladas; modelos de distribuição de tamanhos.   
+2. Interação sólido-fluido: Dinâmica e análise dimensional do sistema partícula - fluido infinito:velocidade terminal; lei de Stokes; correlação entre coeficiente de arraste e número de Reynolds para esferas; efeito da forma das partículas; efeito de paredes; efeito de população; efeito de deslizamento. 
+3. Aplicações em sistemas diluídos: separação sólido-sólido por elutriação; partículas equitombantes e razão de sedimentação; eficiências globais e individuais de coleta; diâmetro de corte; separação sólido-gás com câmaras de poeira e ciclones; separação sólido-líquido com centrífugas e hidrociclones.
+4. Aplicações em  sistemas concentrados: escoamento monofásico em meios porosos; separação sólido-líquido por filtração em superfície; auxiliares de filtração; estudo detalhado dos filtros prensa e de tambor rotativo; separação sólido-líquido por sedimentação; leitos fluidizados a gás e a líquido; curva característica e histerese de fluidização; previsão das velocidades mínima e máxima de fluidização; transporte pneumático de partículas; velocidade de deslizamento; transporte hidráulico de partículas; velocidade de salto.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +109,31 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Participação em sala de aula, preparação e apresentação de trabalhos e provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
-  </si>
-  <si>
-    <t>Participação em sala de aula, preparação e apresentação de trabalhos e provas escritas.</t>
-  </si>
-  <si>
-    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) /3
 Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
+    <t>Norma de recuperação:</t>
+  </si>
+  <si>
+    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
+  </si>
+  <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
+    <t>1. PERRY, R.H.; GREEN, D.W.; MALONEY, J.O. (Eds.). Perrys Chemical Engineers Handbook. New York : McGraw-Hill, 1997.
+2. MASSARANI, G. Fluidodinâmica em Sistemas Particulados. 2. ed. RJ: E-Papers, 2002.
+3. SVAROVSKY, L. Solid-Liquid Separation. 3. ed. LondonBoston: Butterworths, 1990.
+4. RUSHTON, A.; WARD, A.S.; HOLDICH, R.G. Solid-Liquid Filtration and Separation Technology. Weinheim:  VCH, 1996.
+5. COULSON, J.M.; RICHARDSON, J.F. Chemical Engineering. 5th. ed. Londres: Pergamon Press,1996. Vol. 2.
+6. ALLEN, T. Particle Size Measurement. 5th. ed. Londres: Chapman &amp; Hall, 1997. Vol 1 e 2.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,98 +621,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
